--- a/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,17 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemDesc1</t>
-  </si>
-  <si>
-    <t>itemDesc2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试简单dict</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,410 +70,466 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>简单dict下的string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单dict下的lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试dict嵌套array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDictIncludeArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[string:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict下的array1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的元素1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的元素2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict下的array2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayInDict1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayInDict2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[int:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testFloat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试简单array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试tableString1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableString[k:#1(int)|v:#true]</t>
+  </si>
+  <si>
+    <t>10001;</t>
+  </si>
+  <si>
+    <t>10001;10003;10021</t>
+  </si>
+  <si>
+    <t>测试array嵌套array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testArrayIncludeArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的array1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[array[string:3]:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[string:3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的array2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试tableString2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableString[k:#seq|v:#1(int)]</t>
+  </si>
+  <si>
+    <t>测试array嵌套dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTableString1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTableString2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testArrayIncludeDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[dict[3]:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[3]</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试dict嵌套dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDictIncludeDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictInDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floatInDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictLang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictFloat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolInDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套dict中的lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套dict中的float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict中的dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict中的float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict中的bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试tableString3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTableString3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableString[k:#seq|v:#table(type=#1(int),id=#2(int),count=#3(int))]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10001,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10001,500;2,10002,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10001,500;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单dict下统一声明key的lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang(itemDesc{id})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictChildLang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testSimpleArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试简单array2，其中子元素为统一key名的lang型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[lang:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[lang(itemName{id}):2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testSimpleArray2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>dictChildLang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简单dict下的string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单dict下的lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试dict嵌套array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testDictIncludeArray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[string:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict下的array1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的元素1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的元素2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict下的array2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrayInDict1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrayInDict2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[int:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testFloat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试简单array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testSimpleArray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[lang:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试tableString1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableString[k:#1(int)|v:#true]</t>
-  </si>
-  <si>
-    <t>10001;</t>
-  </si>
-  <si>
-    <t>10001;10003;10021</t>
-  </si>
-  <si>
-    <t>测试array嵌套array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testArrayIncludeArray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的array1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[array[string:3]:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[string:3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的array2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试tableString2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableString[k:#seq|v:#1(int)]</t>
-  </si>
-  <si>
-    <t>测试array嵌套dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testTableString1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testTableString2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testArrayIncludeDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[dict[3]:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[3]</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试dict嵌套dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testDictIncludeDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictInDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floatInDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictLang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictFloat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolInDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套dict中的lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套dict中的float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict中的dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict中的float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict中的bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试tableString3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testTableString3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableString[k:#seq|v:#table(type=#1(int),id=#2(int),count=#3(int))]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10001,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10001,500;2,10002,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10001,500;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
+    <t>itemDesc100004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,7 +1191,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AS8"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1160,39 +1205,40 @@
     <col min="3" max="3" width="17.25" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.125" style="10" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="11" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="9" customWidth="1"/>
-    <col min="16" max="16" width="17" style="12" customWidth="1"/>
-    <col min="17" max="17" width="11.375" style="12" customWidth="1"/>
-    <col min="18" max="18" width="10.375" style="12" customWidth="1"/>
-    <col min="19" max="19" width="17.75" style="15" customWidth="1"/>
-    <col min="20" max="20" width="25.75" style="7" customWidth="1"/>
-    <col min="21" max="21" width="18.375" style="7" customWidth="1"/>
-    <col min="22" max="24" width="9" style="7"/>
-    <col min="25" max="25" width="15.75" style="7" customWidth="1"/>
-    <col min="26" max="28" width="9" style="7"/>
-    <col min="29" max="29" width="19.125" style="10" customWidth="1"/>
-    <col min="30" max="30" width="22.625" style="9" customWidth="1"/>
-    <col min="31" max="38" width="9" style="9"/>
-    <col min="39" max="39" width="22.25" style="43" customWidth="1"/>
-    <col min="40" max="40" width="13.375" style="43" customWidth="1"/>
-    <col min="41" max="41" width="11.5" style="43" customWidth="1"/>
-    <col min="42" max="42" width="11.875" style="43" customWidth="1"/>
-    <col min="43" max="43" width="12.875" style="43" customWidth="1"/>
-    <col min="44" max="44" width="12.5" style="43" customWidth="1"/>
-    <col min="45" max="45" width="29.875" style="12" customWidth="1"/>
-    <col min="46" max="16384" width="9" style="13"/>
+    <col min="6" max="7" width="18.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="11" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="15.125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="16.625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="9" customWidth="1"/>
+    <col min="17" max="17" width="17" style="12" customWidth="1"/>
+    <col min="18" max="18" width="16.625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="15.875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="27.625" style="11" customWidth="1"/>
+    <col min="21" max="21" width="17.75" style="15" customWidth="1"/>
+    <col min="22" max="22" width="25.75" style="7" customWidth="1"/>
+    <col min="23" max="23" width="18.375" style="7" customWidth="1"/>
+    <col min="24" max="26" width="9" style="7"/>
+    <col min="27" max="27" width="15.75" style="7" customWidth="1"/>
+    <col min="28" max="30" width="9" style="7"/>
+    <col min="31" max="31" width="19.125" style="10" customWidth="1"/>
+    <col min="32" max="32" width="22.625" style="9" customWidth="1"/>
+    <col min="33" max="40" width="9" style="9"/>
+    <col min="41" max="41" width="22.25" style="43" customWidth="1"/>
+    <col min="42" max="42" width="13.375" style="43" customWidth="1"/>
+    <col min="43" max="43" width="17" style="43" customWidth="1"/>
+    <col min="44" max="44" width="11.875" style="43" customWidth="1"/>
+    <col min="45" max="45" width="12.875" style="43" customWidth="1"/>
+    <col min="46" max="46" width="12.5" style="43" customWidth="1"/>
+    <col min="47" max="47" width="29.875" style="12" customWidth="1"/>
+    <col min="48" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,133 +1249,139 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="6">
+        <v>1</v>
+      </c>
+      <c r="S1" s="6">
+        <v>2</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="V1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="6">
-        <v>1</v>
-      </c>
-      <c r="R1" s="6">
-        <v>2</v>
-      </c>
-      <c r="S1" s="14" t="s">
+      <c r="W1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="AJ1" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM1" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN1" s="39" t="s">
-        <v>103</v>
+        <v>64</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="AO1" s="39" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AP1" s="39" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AQ1" s="39" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AR1" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="AS1" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT1" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,97 +1392,103 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="14" t="s">
+      <c r="AE2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="AL2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM2" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP2" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ2" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR2" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="AN2" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO2" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP2" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ2" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR2" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>111</v>
+      <c r="AS2" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT2" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:47" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1441,123 +1499,129 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
+      <c r="G3" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="R3" s="6"/>
-      <c r="S3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD3" s="3" t="s">
+      <c r="S3" s="6"/>
+      <c r="T3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AE3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="AI3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM3" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN3" s="39" t="s">
-        <v>92</v>
+        <v>66</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="AO3" s="39" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AP3" s="39" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AQ3" s="39" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AR3" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS3" s="6" t="s">
-        <v>112</v>
+        <v>85</v>
+      </c>
+      <c r="AS3" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT3" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:47" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="29"/>
+      <c r="N4" s="28"/>
+      <c r="P4" s="26"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="30"/>
+      <c r="AE4" s="27"/>
       <c r="AF4" s="26"/>
       <c r="AG4" s="26"/>
       <c r="AH4" s="26"/>
@@ -1565,17 +1629,19 @@
       <c r="AJ4" s="26"/>
       <c r="AK4" s="26"/>
       <c r="AL4" s="26"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
       <c r="AO4" s="40"/>
       <c r="AP4" s="40"/>
       <c r="AQ4" s="40"/>
       <c r="AR4" s="40"/>
-      <c r="AS4" s="29"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="29"/>
     </row>
-    <row r="5" spans="1:45" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31">
-        <v>1</v>
+    <row r="5" spans="1:47" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
+        <v>118</v>
       </c>
       <c r="B5" s="32">
         <v>0</v>
@@ -1588,399 +1654,407 @@
         <v>1</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="35">
+        <v>109</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35">
         <v>-1</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35">
+      <c r="I5" s="35"/>
+      <c r="J5" s="35">
         <v>1</v>
       </c>
-      <c r="J5" s="35">
+      <c r="K5" s="35">
         <v>2</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35">
+      <c r="L5" s="35"/>
+      <c r="M5" s="35">
         <v>1</v>
       </c>
-      <c r="M5" s="35">
+      <c r="N5" s="35">
         <v>2</v>
       </c>
-      <c r="N5" s="31">
+      <c r="O5" s="31">
         <v>0</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="36">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="36">
         <v>-1</v>
       </c>
-      <c r="Q5" s="36"/>
       <c r="R5" s="36"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="31" t="s">
+        <v>45</v>
+      </c>
       <c r="W5" s="31"/>
       <c r="X5" s="31"/>
       <c r="Y5" s="31"/>
       <c r="Z5" s="31"/>
       <c r="AA5" s="31"/>
       <c r="AB5" s="31"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE5" s="33"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="34"/>
       <c r="AF5" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG5" s="33" t="s">
-        <v>77</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AG5" s="33"/>
       <c r="AH5" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI5" s="33"/>
+        <v>68</v>
+      </c>
+      <c r="AI5" s="33" t="s">
+        <v>68</v>
+      </c>
       <c r="AJ5" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK5" s="33" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AK5" s="33"/>
       <c r="AL5" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM5" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN5" s="41"/>
+        <v>68</v>
+      </c>
+      <c r="AM5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN5" s="33" t="s">
+        <v>68</v>
+      </c>
       <c r="AO5" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP5" s="41" t="s">
-        <v>107</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AP5" s="41"/>
       <c r="AQ5" s="41" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AR5" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS5" s="36"/>
+        <v>97</v>
+      </c>
+      <c r="AS5" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT5" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU5" s="36"/>
     </row>
-    <row r="6" spans="1:45" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
-        <v>2</v>
+    <row r="6" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="B6" s="17">
         <v>1</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="G6" s="19"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="20">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20">
         <v>1</v>
       </c>
-      <c r="J6" s="20">
+      <c r="K6" s="20">
         <v>2</v>
       </c>
-      <c r="K6" s="20">
+      <c r="L6" s="20">
         <v>-1</v>
       </c>
-      <c r="L6" s="20">
+      <c r="M6" s="20">
         <v>1</v>
       </c>
-      <c r="M6" s="20">
+      <c r="N6" s="20">
         <v>2</v>
       </c>
-      <c r="N6" s="16">
+      <c r="O6" s="16">
         <v>1</v>
       </c>
-      <c r="O6" s="18">
+      <c r="P6" s="18">
         <v>1</v>
       </c>
-      <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
-      <c r="S6" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="U6" s="16"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="V6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>51</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="W6" s="16"/>
       <c r="X6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" s="16"/>
+        <v>42</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="Z6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>52</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AA6" s="16"/>
       <c r="AB6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG6" s="18" t="s">
-        <v>118</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AC6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
       <c r="AH6" s="18" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AI6" s="18" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AJ6" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AK6" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AL6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO6" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP6" s="41" t="s">
-        <v>107</v>
+        <v>68</v>
+      </c>
+      <c r="AM6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO6" s="42"/>
+      <c r="AP6" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="AQ6" s="41" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AR6" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS6" s="21" t="s">
-        <v>113</v>
+        <v>97</v>
+      </c>
+      <c r="AS6" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT6" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU6" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16">
-        <v>3</v>
+    <row r="7" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="B7" s="17">
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19">
         <v>1</v>
       </c>
       <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="20">
+      <c r="L7" s="20"/>
+      <c r="M7" s="20">
         <v>1</v>
       </c>
-      <c r="M7" s="20">
+      <c r="N7" s="20">
         <v>2</v>
       </c>
-      <c r="N7" s="16">
+      <c r="O7" s="16">
         <v>1.5</v>
       </c>
-      <c r="O7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22">
+      <c r="P7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="S7" s="21"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="22">
         <v>10002</v>
       </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>52</v>
-      </c>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
       <c r="X7" s="16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Y7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="Z7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="AB7" s="16"/>
-      <c r="AC7" s="19">
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="19">
         <v>10002</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG7" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
       <c r="AH7" s="18" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="AI7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="AJ7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK7" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="AL7" s="18"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ7" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR7" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS7" s="21" t="s">
-        <v>115</v>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS7" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT7" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU7" s="21" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16">
-        <v>4</v>
+    <row r="8" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="B8" s="17">
         <v>0</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19">
         <v>2</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="20">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
         <v>3</v>
       </c>
-      <c r="J8" s="20">
+      <c r="K8" s="20">
         <v>4</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20">
+      <c r="L8" s="20"/>
+      <c r="M8" s="20">
         <v>5</v>
       </c>
-      <c r="M8" s="20">
+      <c r="N8" s="20">
         <v>6</v>
       </c>
-      <c r="N8" s="16">
+      <c r="O8" s="16">
         <v>1.25</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="P8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" s="20"/>
+      <c r="U8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16" t="s">
-        <v>56</v>
-      </c>
+      <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB8" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG8" s="18" t="s">
-        <v>84</v>
-      </c>
+      <c r="Z8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
       <c r="AH8" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI8" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="AI8" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="AJ8" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK8" s="18" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AK8" s="18"/>
       <c r="AL8" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP8" s="41" t="s">
-        <v>107</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AM8" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN8" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="42"/>
       <c r="AQ8" s="41" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AR8" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS8" s="21" t="s">
-        <v>114</v>
+        <v>97</v>
+      </c>
+      <c r="AS8" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT8" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU8" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
@@ -1191,10 +1191,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AU8"/>
+  <dimension ref="A1:AW9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1238,7 +1238,7 @@
     <col min="48" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:49" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:49" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:49" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
@@ -1639,204 +1639,142 @@
       <c r="AT4" s="40"/>
       <c r="AU4" s="29"/>
     </row>
-    <row r="5" spans="1:47" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:49" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B6" s="32">
         <v>0</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34">
+      <c r="C6" s="33"/>
+      <c r="D6" s="34">
         <v>-1</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E6" s="34">
         <v>1</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F6" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35">
+      <c r="G6" s="34"/>
+      <c r="H6" s="35">
         <v>-1</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35">
+      <c r="I6" s="35"/>
+      <c r="J6" s="35">
         <v>1</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K6" s="35">
         <v>2</v>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35">
+      <c r="L6" s="35"/>
+      <c r="M6" s="35">
         <v>1</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N6" s="35">
         <v>2</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O6" s="31">
         <v>0</v>
       </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="36">
+      <c r="P6" s="33"/>
+      <c r="Q6" s="36">
         <v>-1</v>
       </c>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="31" t="s">
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="33" t="s">
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33" t="s">
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AI5" s="33" t="s">
+      <c r="AI6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AJ5" s="33" t="s">
+      <c r="AJ6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33" t="s">
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AM5" s="33" t="s">
+      <c r="AM6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AN5" s="33" t="s">
+      <c r="AN6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AO5" s="41" t="s">
+      <c r="AO6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR5" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS5" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT5" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU5" s="36"/>
-    </row>
-    <row r="6" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20">
-        <v>1</v>
-      </c>
-      <c r="K6" s="20">
-        <v>2</v>
-      </c>
-      <c r="L6" s="20">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="20">
-        <v>1</v>
-      </c>
-      <c r="N6" s="20">
-        <v>2</v>
-      </c>
-      <c r="O6" s="16">
-        <v>1</v>
-      </c>
-      <c r="P6" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI6" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK6" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="42" t="s">
-        <v>67</v>
-      </c>
+      <c r="AP6" s="41"/>
       <c r="AQ6" s="41" t="s">
         <v>112</v>
       </c>
@@ -1844,36 +1782,40 @@
         <v>97</v>
       </c>
       <c r="AS6" s="41" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="AT6" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU6" s="21" t="s">
-        <v>103</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AU6" s="36"/>
     </row>
-    <row r="7" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:49" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="17">
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="J7" s="20">
+        <v>1</v>
+      </c>
+      <c r="K7" s="20">
+        <v>2</v>
+      </c>
+      <c r="L7" s="20">
+        <v>-1</v>
+      </c>
       <c r="M7" s="20">
         <v>1</v>
       </c>
@@ -1881,179 +1823,288 @@
         <v>2</v>
       </c>
       <c r="O7" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="P7" s="18">
+        <v>1</v>
       </c>
       <c r="Q7" s="21"/>
-      <c r="R7" s="21" t="s">
-        <v>125</v>
-      </c>
+      <c r="R7" s="21"/>
       <c r="S7" s="21"/>
       <c r="T7" s="20"/>
-      <c r="U7" s="22">
-        <v>10002</v>
-      </c>
-      <c r="V7" s="16"/>
+      <c r="U7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16" t="s">
         <v>42</v>
       </c>
       <c r="Y7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Z7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="19">
-        <v>10002</v>
+      <c r="AC7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
       <c r="AH7" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AI7" s="18" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AJ7" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AK7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
+      <c r="AL7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN7" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="41"/>
+      <c r="AP7" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ7" s="41" t="s">
+        <v>112</v>
+      </c>
       <c r="AR7" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS7" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT7" s="42" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="AS7" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT7" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AU7" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:49" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19">
-        <v>2</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>129</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
-      <c r="J8" s="20">
-        <v>3</v>
-      </c>
-      <c r="K8" s="20">
-        <v>4</v>
-      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O8" s="16">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>113</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="S8" s="21"/>
       <c r="T8" s="20"/>
-      <c r="U8" s="22" t="s">
-        <v>36</v>
+      <c r="U8" s="22">
+        <v>10002</v>
       </c>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y8" s="16"/>
+        <v>42</v>
+      </c>
+      <c r="Y8" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="Z8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA8" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="AA8" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="AB8" s="16"/>
-      <c r="AC8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>36</v>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="19">
+        <v>10002</v>
       </c>
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
       <c r="AH8" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AI8" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AJ8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN8" s="18" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AK8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
       <c r="AO8" s="42"/>
       <c r="AP8" s="42"/>
-      <c r="AQ8" s="41" t="s">
+      <c r="AQ8" s="41"/>
+      <c r="AR8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS8" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT8" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU8" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
+        <v>2</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
+        <v>3</v>
+      </c>
+      <c r="K9" s="20">
+        <v>4</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20">
+        <v>5</v>
+      </c>
+      <c r="N9" s="20">
+        <v>6</v>
+      </c>
+      <c r="O9" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="T9" s="20"/>
+      <c r="U9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ9" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="AR8" s="41" t="s">
+      <c r="AR9" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AS8" s="41" t="s">
+      <c r="AS9" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="AT8" s="41" t="s">
+      <c r="AT9" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="AU8" s="21" t="s">
+      <c r="AU9" s="21" t="s">
         <v>104</v>
       </c>
     </row>

--- a/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="186">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,225 @@
   </si>
   <si>
     <t>itemDesc100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年7月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年10月10日 10时10分10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年10月10日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年7月1日 1时1秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-07-01 01:0:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-10-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-10-10         10:10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试date（自定义日期输入、导出至lua文件的格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试date（使用默认的日期输入格式，以dateTable形式导出至lua文件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试date（以距离1970年秒数输入、导出至lua文件采用自定义日期格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试date（以距离1970年毫秒数输入、导出至lua文件采用距离1970年秒数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDate4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(toLua=#dateTable)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(input=#1970sec|toLua=yyyy年MM月dd日 HH时mm分ss秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(input=#1970msec|toLua=#1970sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试time（自定义时间输入、导出至lua文件的格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTime1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(input=yyyy年MM月dd日 HH时mm分ss秒|toLua=yyyy/MM/dd HH:mm:ss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0:0</t>
+  </si>
+  <si>
+    <t>3:0:32</t>
+  </si>
+  <si>
+    <t>time(input=HH时mm分ss秒|toLua=HH:mm:ss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0时0分0秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10时10分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3时32秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTime2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTime3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(toLua=#sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(input=#sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试date（以距离0点的秒数输入，导出至lua文件采用默认的时间格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试time（使用默认的时间输入格式，导出至lua文件采用距离0点的秒数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467331200000</t>
+  </si>
+  <si>
+    <t>1467331200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467334801000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467334801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1476057600000</t>
+  </si>
+  <si>
+    <t>1476057600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1476094210000</t>
+  </si>
+  <si>
+    <t>1476094210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467331200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testLong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1467331200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +773,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,6 +825,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,6 +1042,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1191,7 +1452,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AW9"/>
+  <dimension ref="A1:BC9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1203,42 +1464,50 @@
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="9" style="8"/>
     <col min="3" max="3" width="17.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="10" customWidth="1"/>
-    <col min="6" max="7" width="18.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="11" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="11" customWidth="1"/>
-    <col min="11" max="11" width="17.25" style="11" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="15.125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="16.625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="9" customWidth="1"/>
-    <col min="17" max="17" width="17" style="12" customWidth="1"/>
-    <col min="18" max="18" width="16.625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="15.875" style="12" customWidth="1"/>
-    <col min="20" max="20" width="27.625" style="11" customWidth="1"/>
-    <col min="21" max="21" width="17.75" style="15" customWidth="1"/>
-    <col min="22" max="22" width="25.75" style="7" customWidth="1"/>
-    <col min="23" max="23" width="18.375" style="7" customWidth="1"/>
-    <col min="24" max="26" width="9" style="7"/>
-    <col min="27" max="27" width="15.75" style="7" customWidth="1"/>
-    <col min="28" max="30" width="9" style="7"/>
-    <col min="31" max="31" width="19.125" style="10" customWidth="1"/>
-    <col min="32" max="32" width="22.625" style="9" customWidth="1"/>
-    <col min="33" max="40" width="9" style="9"/>
-    <col min="41" max="41" width="22.25" style="43" customWidth="1"/>
-    <col min="42" max="42" width="13.375" style="43" customWidth="1"/>
-    <col min="43" max="43" width="17" style="43" customWidth="1"/>
-    <col min="44" max="44" width="11.875" style="43" customWidth="1"/>
-    <col min="45" max="45" width="12.875" style="43" customWidth="1"/>
-    <col min="46" max="46" width="12.5" style="43" customWidth="1"/>
-    <col min="47" max="47" width="29.875" style="12" customWidth="1"/>
-    <col min="48" max="16384" width="9" style="13"/>
+    <col min="4" max="4" width="17.25" style="53" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="10" customWidth="1"/>
+    <col min="7" max="8" width="18.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.25" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16.625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="9" customWidth="1"/>
+    <col min="18" max="18" width="17" style="12" customWidth="1"/>
+    <col min="19" max="19" width="16.625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="15.875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="27.625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="17.75" style="15" customWidth="1"/>
+    <col min="23" max="23" width="25.75" style="7" customWidth="1"/>
+    <col min="24" max="24" width="18.375" style="7" customWidth="1"/>
+    <col min="25" max="27" width="9" style="7"/>
+    <col min="28" max="28" width="15.75" style="7" customWidth="1"/>
+    <col min="29" max="31" width="9" style="7"/>
+    <col min="32" max="32" width="19.125" style="10" customWidth="1"/>
+    <col min="33" max="33" width="22.625" style="9" customWidth="1"/>
+    <col min="34" max="41" width="9" style="9"/>
+    <col min="42" max="42" width="22.25" style="43" customWidth="1"/>
+    <col min="43" max="43" width="13.375" style="43" customWidth="1"/>
+    <col min="44" max="44" width="17" style="43" customWidth="1"/>
+    <col min="45" max="45" width="11.875" style="43" customWidth="1"/>
+    <col min="46" max="46" width="12.875" style="43" customWidth="1"/>
+    <col min="47" max="47" width="12.5" style="43" customWidth="1"/>
+    <col min="48" max="48" width="29.875" style="12" customWidth="1"/>
+    <col min="49" max="49" width="28.625" style="9" customWidth="1"/>
+    <col min="50" max="50" width="36.25" style="7" customWidth="1"/>
+    <col min="51" max="51" width="38.5" style="15" customWidth="1"/>
+    <col min="52" max="52" width="31.5" style="11" customWidth="1"/>
+    <col min="53" max="53" width="33.125" style="9" customWidth="1"/>
+    <col min="54" max="54" width="34.125" style="7" customWidth="1"/>
+    <col min="55" max="55" width="33.125" style="48" customWidth="1"/>
+    <col min="56" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:55" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,140 +1517,164 @@
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="6">
+      <c r="S1" s="6">
         <v>1</v>
       </c>
-      <c r="S1" s="6">
+      <c r="T1" s="6">
         <v>2</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AO1" s="39" t="s">
+      <c r="AP1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AP1" s="39" t="s">
+      <c r="AQ1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AQ1" s="39" t="s">
+      <c r="AR1" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AR1" s="39" t="s">
+      <c r="AS1" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AS1" s="39" t="s">
+      <c r="AT1" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="AT1" s="39" t="s">
+      <c r="AU1" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="AW1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC1" s="44" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,104 +1684,128 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="39" t="s">
+      <c r="AP2" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="AP2" s="39" t="s">
+      <c r="AQ2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2" s="39" t="s">
+      <c r="AR2" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="AR2" s="39" t="s">
+      <c r="AS2" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="39" t="s">
+      <c r="AT2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="AT2" s="39" t="s">
+      <c r="AU2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>101</v>
       </c>
+      <c r="AW2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BC2" s="44" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:55" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1498,68 +1815,68 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="6"/>
+      <c r="U3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="AI3" s="3" t="s">
         <v>66</v>
@@ -1568,10 +1885,10 @@
         <v>66</v>
       </c>
       <c r="AK3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL3" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="AM3" s="3" t="s">
         <v>66</v>
@@ -1579,50 +1896,74 @@
       <c r="AN3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AO3" s="39" t="s">
+      <c r="AO3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="AP3" s="39" t="s">
+      <c r="AQ3" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="AQ3" s="39" t="s">
+      <c r="AR3" s="39" t="s">
         <v>84</v>
-      </c>
-      <c r="AR3" s="39" t="s">
-        <v>85</v>
       </c>
       <c r="AS3" s="39" t="s">
         <v>85</v>
       </c>
       <c r="AT3" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU3" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AV3" s="6" t="s">
         <v>102</v>
       </c>
+      <c r="AW3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BC3" s="44" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="29"/>
+      <c r="O4" s="28"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="30"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="26"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="30"/>
+      <c r="AF4" s="27"/>
       <c r="AG4" s="26"/>
       <c r="AH4" s="26"/>
       <c r="AI4" s="26"/>
@@ -1631,37 +1972,43 @@
       <c r="AL4" s="26"/>
       <c r="AM4" s="26"/>
       <c r="AN4" s="26"/>
-      <c r="AO4" s="40"/>
+      <c r="AO4" s="26"/>
       <c r="AP4" s="40"/>
       <c r="AQ4" s="40"/>
       <c r="AR4" s="40"/>
       <c r="AS4" s="40"/>
       <c r="AT4" s="40"/>
-      <c r="AU4" s="29"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="26"/>
+      <c r="AY4" s="30"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="26"/>
+      <c r="BC4" s="45"/>
     </row>
-    <row r="5" spans="1:49" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="6"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="1"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="14"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -1670,8 +2017,8 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="3"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="4"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
@@ -1680,17 +2027,22 @@
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="39"/>
+      <c r="AO5" s="3"/>
       <c r="AP5" s="39"/>
       <c r="AQ5" s="39"/>
       <c r="AR5" s="39"/>
       <c r="AS5" s="39"/>
       <c r="AT5" s="39"/>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="30"/>
+      <c r="AZ5" s="28"/>
+      <c r="BA5" s="26"/>
+      <c r="BC5" s="45"/>
     </row>
-    <row r="6" spans="1:49" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:55" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>118</v>
       </c>
@@ -1698,48 +2050,50 @@
         <v>0</v>
       </c>
       <c r="C6" s="33"/>
-      <c r="D6" s="34">
+      <c r="D6" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="34">
         <v>-1</v>
       </c>
-      <c r="E6" s="34">
+      <c r="F6" s="34">
         <v>1</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="G6" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35">
+      <c r="H6" s="34"/>
+      <c r="I6" s="35">
         <v>-1</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35">
         <v>1</v>
       </c>
-      <c r="K6" s="35">
+      <c r="L6" s="35">
         <v>2</v>
       </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35">
+      <c r="M6" s="35"/>
+      <c r="N6" s="35">
         <v>1</v>
       </c>
-      <c r="N6" s="35">
+      <c r="O6" s="35">
         <v>2</v>
       </c>
-      <c r="O6" s="31">
+      <c r="P6" s="31">
         <v>0</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="36">
+      <c r="Q6" s="33"/>
+      <c r="R6" s="36">
         <v>-1</v>
       </c>
-      <c r="R6" s="36"/>
       <c r="S6" s="36"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="31" t="s">
+      <c r="T6" s="36"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="W6" s="31"/>
       <c r="X6" s="31"/>
       <c r="Y6" s="31"/>
       <c r="Z6" s="31"/>
@@ -1747,49 +2101,71 @@
       <c r="AB6" s="31"/>
       <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="33" t="s">
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33" t="s">
-        <v>68</v>
-      </c>
+      <c r="AH6" s="33"/>
       <c r="AI6" s="33" t="s">
         <v>68</v>
       </c>
       <c r="AJ6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33" t="s">
+      <c r="AK6" s="33" t="s">
         <v>68</v>
       </c>
+      <c r="AL6" s="33"/>
       <c r="AM6" s="33" t="s">
         <v>68</v>
       </c>
       <c r="AN6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AO6" s="41" t="s">
+      <c r="AO6" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41" t="s">
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="AR6" s="41" t="s">
+      <c r="AS6" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AS6" s="41" t="s">
+      <c r="AT6" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="AT6" s="41" t="s">
+      <c r="AU6" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="AU6" s="36"/>
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX6" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY6" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ6" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA6" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB6" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC6" s="46" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:55" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>119</v>
       </c>
@@ -1799,84 +2175,84 @@
       <c r="C7" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="51" t="s">
+        <v>183</v>
+      </c>
       <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="20">
+      <c r="J7" s="20"/>
+      <c r="K7" s="20">
         <v>1</v>
       </c>
-      <c r="K7" s="20">
+      <c r="L7" s="20">
         <v>2</v>
       </c>
-      <c r="L7" s="20">
+      <c r="M7" s="20">
         <v>-1</v>
       </c>
-      <c r="M7" s="20">
+      <c r="N7" s="20">
         <v>1</v>
       </c>
-      <c r="N7" s="20">
+      <c r="O7" s="20">
         <v>2</v>
       </c>
-      <c r="O7" s="16">
+      <c r="P7" s="16">
         <v>1</v>
       </c>
-      <c r="P7" s="18">
+      <c r="Q7" s="18">
         <v>1</v>
       </c>
-      <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="22" t="s">
+      <c r="T7" s="21"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="16" t="s">
+      <c r="W7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="X7" s="16"/>
       <c r="Y7" s="16" t="s">
         <v>42</v>
       </c>
       <c r="Z7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="AA7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="16"/>
       <c r="AC7" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AD7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AE7" s="19" t="s">
+      <c r="AE7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
-      <c r="AH7" s="18" t="s">
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AI7" s="18" t="s">
+      <c r="AJ7" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AJ7" s="18" t="s">
+      <c r="AK7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AK7" s="18" t="s">
+      <c r="AL7" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="AL7" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="AM7" s="18" t="s">
         <v>68</v>
@@ -1884,27 +2260,51 @@
       <c r="AN7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42" t="s">
+      <c r="AO7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AQ7" s="41" t="s">
+      <c r="AR7" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="AR7" s="41" t="s">
+      <c r="AS7" s="41" t="s">
         <v>97</v>
-      </c>
-      <c r="AS7" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="AT7" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="AU7" s="21" t="s">
+      <c r="AU7" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV7" s="21" t="s">
         <v>103</v>
       </c>
+      <c r="AW7" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX7" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="AY7" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ7" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA7" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB7" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC7" s="47" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:55" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>120</v>
       </c>
@@ -1914,92 +2314,116 @@
       <c r="C8" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19">
+      <c r="D8" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="20">
+      <c r="M8" s="20"/>
+      <c r="N8" s="20">
         <v>1</v>
       </c>
-      <c r="N8" s="20">
+      <c r="O8" s="20">
         <v>2</v>
       </c>
-      <c r="O8" s="16">
+      <c r="P8" s="16">
         <v>1.5</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="Q8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21" t="s">
+      <c r="R8" s="21"/>
+      <c r="S8" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="S8" s="21"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="22">
+      <c r="T8" s="21"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="22">
         <v>10002</v>
       </c>
-      <c r="V8" s="16"/>
       <c r="W8" s="16"/>
-      <c r="X8" s="16" t="s">
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Y8" s="16" t="s">
+      <c r="Z8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="16" t="s">
+      <c r="AA8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AA8" s="16" t="s">
+      <c r="AB8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
-      <c r="AE8" s="19">
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="19">
         <v>10002</v>
       </c>
-      <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
-      <c r="AH8" s="18" t="s">
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="AI8" s="18" t="s">
+      <c r="AJ8" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AJ8" s="18" t="s">
+      <c r="AK8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="AK8" s="18" t="s">
+      <c r="AL8" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AL8" s="18"/>
       <c r="AM8" s="18"/>
       <c r="AN8" s="18"/>
-      <c r="AO8" s="42"/>
+      <c r="AO8" s="18"/>
       <c r="AP8" s="42"/>
-      <c r="AQ8" s="41"/>
-      <c r="AR8" s="41" t="s">
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="41"/>
+      <c r="AS8" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AS8" s="42" t="s">
+      <c r="AT8" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AT8" s="42" t="s">
+      <c r="AU8" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="AU8" s="21" t="s">
+      <c r="AV8" s="21" t="s">
         <v>105</v>
       </c>
+      <c r="AW8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX8" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY8" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ8" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA8" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB8" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="BC8" s="47" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:55" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>121</v>
       </c>
@@ -2009,103 +2433,127 @@
       <c r="C9" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19">
+      <c r="D9" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>2</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="20">
+      <c r="J9" s="20"/>
+      <c r="K9" s="20">
         <v>3</v>
       </c>
-      <c r="K9" s="20">
+      <c r="L9" s="20">
         <v>4</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20">
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
         <v>5</v>
       </c>
-      <c r="N9" s="20">
+      <c r="O9" s="20">
         <v>6</v>
       </c>
-      <c r="O9" s="16">
+      <c r="P9" s="16">
         <v>1.25</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="Q9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21" t="s">
+      <c r="R9" s="21"/>
+      <c r="S9" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="T9" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T9" s="20"/>
-      <c r="U9" s="22" t="s">
+      <c r="U9" s="20"/>
+      <c r="V9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="16"/>
       <c r="W9" s="16"/>
-      <c r="X9" s="16" t="s">
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16" t="s">
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
-      <c r="AC9" s="16" t="s">
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="16" t="s">
+      <c r="AE9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AF9" s="18"/>
       <c r="AG9" s="18"/>
-      <c r="AH9" s="18" t="s">
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AI9" s="18" t="s">
+      <c r="AJ9" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="AJ9" s="18" t="s">
+      <c r="AK9" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18" t="s">
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="AM9" s="18" t="s">
+      <c r="AN9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AN9" s="18" t="s">
+      <c r="AO9" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AO9" s="42"/>
       <c r="AP9" s="42"/>
-      <c r="AQ9" s="41" t="s">
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="AR9" s="41" t="s">
+      <c r="AS9" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AS9" s="41" t="s">
+      <c r="AT9" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="AT9" s="41" t="s">
+      <c r="AU9" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="AU9" s="21" t="s">
+      <c r="AV9" s="21" t="s">
         <v>104</v>
+      </c>
+      <c r="AW9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY9" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ9" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA9" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB9" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC9" s="47" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 5.3\XlsxToLua\bin\Debug\TestExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="207">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,669 +91,752 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>array下的元素1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的元素2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict下的array2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayInDict1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayInDict2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[int:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testFloat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试简单array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试tableString1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableString[k:#1(int)|v:#true]</t>
+  </si>
+  <si>
+    <t>10001;</t>
+  </si>
+  <si>
+    <t>10001;10003;10021</t>
+  </si>
+  <si>
+    <t>测试array嵌套array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testArrayIncludeArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的array1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[array[string:3]:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[string:3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的array2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试tableString2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableString[k:#seq|v:#1(int)]</t>
+  </si>
+  <si>
+    <t>测试array嵌套dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTableString1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTableString2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testArrayIncludeDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[dict[3]:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[3]</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试dict嵌套dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDictIncludeDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictInDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floatInDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictLang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictFloat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolInDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套dict中的lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套dict中的float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict中的dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict中的float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict中的bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试tableString3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTableString3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableString[k:#seq|v:#table(type=#1(int),id=#2(int),count=#3(int))]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10001,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10001,500;2,10002,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10001,500;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单dict下统一声明key的lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang(itemDesc{id})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictChildLang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testSimpleArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试简单array2，其中子元素为统一key名的lang型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[lang:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[lang(itemName{id}):2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testSimpleArray2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictChildLang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDesc100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年7月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年10月10日 10时10分10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年10月10日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年7月1日 1时1秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-07-01 01:0:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-10-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-10-10         10:10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试date（自定义日期输入、导出至lua文件的格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试date（使用默认的日期输入格式，以dateTable形式导出至lua文件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试date（以距离1970年秒数输入、导出至lua文件采用自定义日期格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试date（以距离1970年毫秒数输入、导出至lua文件采用距离1970年秒数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDate4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(toLua=#dateTable)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(input=#1970sec|toLua=yyyy年MM月dd日 HH时mm分ss秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(input=#1970msec|toLua=#1970sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试time（自定义时间输入、导出至lua文件的格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTime1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(input=yyyy年MM月dd日 HH时mm分ss秒|toLua=yyyy/MM/dd HH:mm:ss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0:0</t>
+  </si>
+  <si>
+    <t>3:0:32</t>
+  </si>
+  <si>
+    <t>time(input=HH时mm分ss秒|toLua=HH:mm:ss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0时0分0秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10时10分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3时32秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTime2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTime3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(toLua=#sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(input=#sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试date（以距离0点的秒数输入，导出至lua文件采用默认的时间格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试time（使用默认的时间输入格式，导出至lua文件采用距离0点的秒数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467331200000</t>
+  </si>
+  <si>
+    <t>1467331200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467334801000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467334801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1476057600000</t>
+  </si>
+  <si>
+    <t>1476057600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1476094210000</t>
+  </si>
+  <si>
+    <t>1476094210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467331200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testLong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1467331200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试导出json时，字符串中含有括号、转义引号的特殊情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>array[string:2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>array[string:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>dict下的array1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>array下的元素1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的元素2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict下的array2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrayInDict1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrayInDict2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[int:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testFloat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试简单array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试tableString1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableString[k:#1(int)|v:#true]</t>
-  </si>
-  <si>
-    <t>10001;</t>
-  </si>
-  <si>
-    <t>10001;10003;10021</t>
-  </si>
-  <si>
-    <t>测试array嵌套array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testArrayIncludeArray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的array1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[array[string:3]:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[string:3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的array2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试tableString2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableString[k:#seq|v:#1(int)]</t>
-  </si>
-  <si>
-    <t>测试array嵌套dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testTableString1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testTableString2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testArrayIncludeDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[dict[3]:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[3]</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试dict嵌套dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testDictIncludeDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictInDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floatInDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictLang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictFloat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolInDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套dict中的lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套dict中的float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict中的dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict中的float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict中的bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试tableString3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testTableString3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableString[k:#seq|v:#table(type=#1(int),id=#2(int),count=#3(int))]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10001,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10001,500;2,10002,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10001,500;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单dict下统一声明key的lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang(itemDesc{id})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictChildLang2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testSimpleArray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试简单array2，其中子元素为统一key名的lang型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[lang:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[lang(itemName{id}):2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testSimpleArray2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictChildLang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc100004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testDate1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testDate2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年7月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年10月10日 10时10分10秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年10月10日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年7月1日 1时1秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-7-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-07-01 01:0:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-10-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-10-10         10:10:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试date（自定义日期输入、导出至lua文件的格式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试date（使用默认的日期输入格式，以dateTable形式导出至lua文件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试date（以距离1970年秒数输入、导出至lua文件采用自定义日期格式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testDate3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试date（以距离1970年毫秒数输入、导出至lua文件采用距离1970年秒数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testDate4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date(toLua=#dateTable)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date(input=#1970sec|toLua=yyyy年MM月dd日 HH时mm分ss秒)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date(input=#1970msec|toLua=#1970sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试time（自定义时间输入、导出至lua文件的格式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testTime1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date(input=yyyy年MM月dd日 HH时mm分ss秒|toLua=yyyy/MM/dd HH:mm:ss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0:0</t>
-  </si>
-  <si>
-    <t>3:0:32</t>
-  </si>
-  <si>
-    <t>time(input=HH时mm分ss秒|toLua=HH:mm:ss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0时0分0秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10时10分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3时32秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testTime2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testTime3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time(toLua=#sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time(input=#sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试date（以距离0点的秒数输入，导出至lua文件采用默认的时间格式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试time（使用默认的时间输入格式，导出至lua文件采用距离0点的秒数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10832</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1920</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1467331200000</t>
-  </si>
-  <si>
-    <t>1467331200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1467334801000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1467334801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1476057600000</t>
-  </si>
-  <si>
-    <t>1476057600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1476094210000</t>
-  </si>
-  <si>
-    <t>1476094210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1467331200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testLong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1467331200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
+    <t>dict下的array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportJsonSpecialString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportJsonArrayInDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportJsonStringInDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{带括号]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[带括号}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带引号\"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带\"引号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混{{\"\\]合}</t>
+  </si>
+  <si>
+    <t>混{{\"\\]合}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1163,7 +1251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1205,7 +1293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1240,7 +1328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1452,7 +1540,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BC9"/>
+  <dimension ref="A1:BJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1481,33 +1569,40 @@
     <col min="19" max="19" width="16.625" style="12" customWidth="1"/>
     <col min="20" max="20" width="15.875" style="12" customWidth="1"/>
     <col min="21" max="21" width="27.625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="17.75" style="15" customWidth="1"/>
-    <col min="23" max="23" width="25.75" style="7" customWidth="1"/>
-    <col min="24" max="24" width="18.375" style="7" customWidth="1"/>
-    <col min="25" max="27" width="9" style="7"/>
-    <col min="28" max="28" width="15.75" style="7" customWidth="1"/>
-    <col min="29" max="31" width="9" style="7"/>
-    <col min="32" max="32" width="19.125" style="10" customWidth="1"/>
-    <col min="33" max="33" width="22.625" style="9" customWidth="1"/>
-    <col min="34" max="41" width="9" style="9"/>
-    <col min="42" max="42" width="22.25" style="43" customWidth="1"/>
-    <col min="43" max="43" width="13.375" style="43" customWidth="1"/>
-    <col min="44" max="44" width="17" style="43" customWidth="1"/>
-    <col min="45" max="45" width="11.875" style="43" customWidth="1"/>
-    <col min="46" max="46" width="12.875" style="43" customWidth="1"/>
-    <col min="47" max="47" width="12.5" style="43" customWidth="1"/>
-    <col min="48" max="48" width="29.875" style="12" customWidth="1"/>
-    <col min="49" max="49" width="28.625" style="9" customWidth="1"/>
-    <col min="50" max="50" width="36.25" style="7" customWidth="1"/>
-    <col min="51" max="51" width="38.5" style="15" customWidth="1"/>
-    <col min="52" max="52" width="31.5" style="11" customWidth="1"/>
-    <col min="53" max="53" width="33.125" style="9" customWidth="1"/>
-    <col min="54" max="54" width="34.125" style="7" customWidth="1"/>
-    <col min="55" max="55" width="33.125" style="48" customWidth="1"/>
-    <col min="56" max="16384" width="9" style="13"/>
+    <col min="22" max="22" width="14" style="11" customWidth="1"/>
+    <col min="23" max="23" width="12.625" style="11" customWidth="1"/>
+    <col min="24" max="24" width="17.75" style="15" customWidth="1"/>
+    <col min="25" max="25" width="25.75" style="7" customWidth="1"/>
+    <col min="26" max="26" width="18.375" style="7" customWidth="1"/>
+    <col min="27" max="29" width="9" style="7"/>
+    <col min="30" max="30" width="15.75" style="7" customWidth="1"/>
+    <col min="31" max="33" width="9" style="7"/>
+    <col min="34" max="34" width="19.125" style="10" customWidth="1"/>
+    <col min="35" max="35" width="22.625" style="9" customWidth="1"/>
+    <col min="36" max="43" width="9" style="9"/>
+    <col min="44" max="44" width="22.25" style="43" customWidth="1"/>
+    <col min="45" max="45" width="13.375" style="43" customWidth="1"/>
+    <col min="46" max="46" width="17" style="43" customWidth="1"/>
+    <col min="47" max="47" width="11.875" style="43" customWidth="1"/>
+    <col min="48" max="48" width="12.875" style="43" customWidth="1"/>
+    <col min="49" max="49" width="12.5" style="43" customWidth="1"/>
+    <col min="50" max="50" width="29.875" style="12" customWidth="1"/>
+    <col min="51" max="51" width="28.625" style="9" customWidth="1"/>
+    <col min="52" max="52" width="36.25" style="7" customWidth="1"/>
+    <col min="53" max="53" width="38.5" style="15" customWidth="1"/>
+    <col min="54" max="54" width="31.5" style="11" customWidth="1"/>
+    <col min="55" max="55" width="33.125" style="9" customWidth="1"/>
+    <col min="56" max="56" width="34.125" style="7" customWidth="1"/>
+    <col min="57" max="57" width="33.125" style="48" customWidth="1"/>
+    <col min="58" max="58" width="31.25" style="11" customWidth="1"/>
+    <col min="59" max="59" width="17.5" style="11" customWidth="1"/>
+    <col min="60" max="60" width="26.625" style="11" customWidth="1"/>
+    <col min="61" max="61" width="9" style="11"/>
+    <col min="62" max="62" width="19.75" style="11" customWidth="1"/>
+    <col min="63" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>8</v>
@@ -1530,37 +1625,37 @@
         <v>14</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="N1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S1" s="6">
         <v>1</v>
@@ -1569,112 +1664,133 @@
         <v>2</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="AJ1" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AL1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AM1" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="AN1" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP1" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR1" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV1" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR1" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS1" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT1" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU1" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AY1" s="14" t="s">
+      <c r="BB1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AZ1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BC1" s="44" t="s">
-        <v>165</v>
+      <c r="BC1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE1" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1801,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -1694,118 +1810,127 @@
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="V2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="AJ2" s="3"/>
       <c r="AK2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AM2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AN2" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="AN2" s="3"/>
       <c r="AO2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP2" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ2" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR2" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS2" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="39" t="s">
+      <c r="AU2" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV2" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW2" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="AS2" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT2" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU2" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY2" s="14" t="s">
+      <c r="AX2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BA2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AZ2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BC2" s="44" t="s">
-        <v>162</v>
+      <c r="BC2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE2" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1816,10 +1941,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -1828,121 +1953,134 @@
         <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>58</v>
+        <v>124</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP3" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR3" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS3" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="39" t="s">
+      <c r="AU3" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="39" t="s">
+      <c r="AV3" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="AS3" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT3" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU3" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AX3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB3" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AY3" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ3" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC3" s="44" t="s">
-        <v>164</v>
+      <c r="BC3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BE3" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
       <c r="D4" s="50"/>
@@ -1962,10 +2100,10 @@
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="30"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="30"/>
+      <c r="AH4" s="27"/>
       <c r="AI4" s="26"/>
       <c r="AJ4" s="26"/>
       <c r="AK4" s="26"/>
@@ -1973,20 +2111,27 @@
       <c r="AM4" s="26"/>
       <c r="AN4" s="26"/>
       <c r="AO4" s="26"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
       <c r="AR4" s="40"/>
       <c r="AS4" s="40"/>
       <c r="AT4" s="40"/>
       <c r="AU4" s="40"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="26"/>
-      <c r="AY4" s="30"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="26"/>
-      <c r="BC4" s="45"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="26"/>
+      <c r="BA4" s="30"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="26"/>
+      <c r="BE4" s="45"/>
+      <c r="BF4" s="28"/>
+      <c r="BG4" s="28"/>
+      <c r="BH4" s="28"/>
+      <c r="BI4" s="28"/>
+      <c r="BJ4" s="28"/>
     </row>
-    <row r="5" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2008,9 +2153,9 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="5"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="14"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -2018,9 +2163,9 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="4"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
@@ -2028,30 +2173,37 @@
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
       <c r="AR5" s="39"/>
       <c r="AS5" s="39"/>
       <c r="AT5" s="39"/>
       <c r="AU5" s="39"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="30"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="26"/>
-      <c r="BC5" s="45"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="30"/>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="26"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="28"/>
+      <c r="BG5" s="28"/>
+      <c r="BH5" s="28"/>
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="28"/>
     </row>
-    <row r="6" spans="1:55" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:62" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="32">
         <v>0</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6" s="34">
         <v>-1</v>
@@ -2060,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="35">
@@ -2090,98 +2242,109 @@
       <c r="S6" s="36"/>
       <c r="T6" s="36"/>
       <c r="U6" s="35"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="Z6" s="31"/>
       <c r="AA6" s="31"/>
       <c r="AB6" s="31"/>
       <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
       <c r="AE6" s="31"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH6" s="33"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="34"/>
       <c r="AI6" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ6" s="33" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AJ6" s="33"/>
       <c r="AK6" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL6" s="33"/>
+        <v>66</v>
+      </c>
+      <c r="AL6" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="AM6" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN6" s="33" t="s">
-        <v>68</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AN6" s="33"/>
       <c r="AO6" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP6" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ6" s="41"/>
+        <v>66</v>
+      </c>
+      <c r="AP6" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ6" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="AR6" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS6" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU6" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV6" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW6" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AT6" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU6" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="AV6" s="36"/>
-      <c r="AW6" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX6" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY6" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="AZ6" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="BA6" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB6" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC6" s="46" t="s">
-        <v>167</v>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ6" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA6" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="BB6" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC6" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="BD6" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE6" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF6" s="35"/>
+      <c r="BG6" s="35"/>
+      <c r="BH6" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI6" s="35"/>
+      <c r="BJ6" s="35" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:62" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" s="17">
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="20"/>
@@ -2211,111 +2374,122 @@
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="X7" s="16"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="Y7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z7" s="16" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="Z7" s="16"/>
       <c r="AA7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB7" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="AB7" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="AC7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD7" s="16" t="s">
-        <v>43</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AD7" s="16"/>
       <c r="AE7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ7" s="18" t="s">
-        <v>108</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AF7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
       <c r="AK7" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AL7" s="18" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AM7" s="18" t="s">
         <v>68</v>
       </c>
       <c r="AN7" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AO7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR7" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS7" s="41" t="s">
-        <v>97</v>
+        <v>66</v>
+      </c>
+      <c r="AP7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="AT7" s="41" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="AU7" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV7" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW7" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV7" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW7" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY7" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ7" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="AX7" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY7" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="AZ7" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="BA7" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB7" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC7" s="47" t="s">
-        <v>170</v>
+      <c r="BA7" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB7" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC7" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD7" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="BE7" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF7" s="20"/>
+      <c r="BG7" s="20"/>
+      <c r="BH7" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI7" s="20"/>
+      <c r="BJ7" s="20" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:55" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:62" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="17">
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19">
@@ -2338,110 +2512,121 @@
         <v>1.5</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R8" s="21"/>
       <c r="S8" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T8" s="21"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="22">
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="22">
         <v>10002</v>
       </c>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16" t="s">
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Z8" s="16" t="s">
+      <c r="AD8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
       <c r="AE8" s="16"/>
-      <c r="AF8" s="19">
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="19">
         <v>10002</v>
       </c>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18" t="s">
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="AJ8" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK8" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL8" s="18" t="s">
+      <c r="AN8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="41"/>
+      <c r="AU8" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT8" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU8" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV8" s="21" t="s">
+      <c r="AV8" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="AW8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX8" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AY8" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="AZ8" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA8" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="BB8" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="BC8" s="47" t="s">
-        <v>168</v>
+      <c r="AW8" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX8" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA8" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="BB8" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC8" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD8" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE8" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF8" s="20"/>
+      <c r="BG8" s="20"/>
+      <c r="BH8" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI8" s="20"/>
+      <c r="BJ8" s="20" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:62" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="17">
         <v>0</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19">
         <v>2</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
@@ -2463,97 +2648,108 @@
         <v>1.25</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U9" s="20"/>
-      <c r="V9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18" t="s">
+      <c r="AH9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL9" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AJ9" s="18" t="s">
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="AK9" s="18" t="s">
+      <c r="AP9" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="18" t="s">
+      <c r="AQ9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="AN9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS9" s="41" t="s">
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU9" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV9" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW9" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU9" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="AV9" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW9" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="AX9" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY9" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="AZ9" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="BA9" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="BB9" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC9" s="47" t="s">
-        <v>169</v>
+      <c r="AX9" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ9" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA9" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB9" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC9" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD9" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE9" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF9" s="20"/>
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 5.3\XlsxToLua\bin\Debug\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 6.1\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -825,18 +825,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>带引号\"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带\"引号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混{{\"\\]合}</t>
-  </si>
-  <si>
-    <t>混{{\"\\]合}</t>
+    <t>带引号"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带\\"引号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混{{"\\]合}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混{{\\"]合}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2745,11 +2746,11 @@
       <c r="BF9" s="20"/>
       <c r="BG9" s="20"/>
       <c r="BH9" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BI9" s="20"/>
       <c r="BJ9" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 6.1\XlsxToLua\bin\Debug\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 7.0\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="214">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -838,6 +838,33 @@
   </si>
   <si>
     <t>混{{\\"]合}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testJson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"testString1":"测试\"引号\"","testString2":"测试换行\n第二行"}</t>
+  </si>
+  <si>
+    <t>{"testbool":true,"testNumber1":"12","testNumber2":"-3.5"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["a","b","c",12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"position":{"x":1,"y":-0.5},"field":["a","b","value3"]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +889,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,6 +953,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,6 +1194,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1541,7 +1589,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BJ9"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1600,10 +1648,11 @@
     <col min="60" max="60" width="26.625" style="11" customWidth="1"/>
     <col min="61" max="61" width="9" style="11"/>
     <col min="62" max="62" width="19.75" style="11" customWidth="1"/>
-    <col min="63" max="16384" width="9" style="13"/>
+    <col min="63" max="63" width="66" style="58" customWidth="1"/>
+    <col min="64" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,8 +1839,11 @@
       <c r="BJ1" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="BK1" s="54" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1930,8 +1982,11 @@
       <c r="BJ2" s="5" t="s">
         <v>198</v>
       </c>
+      <c r="BK2" s="54" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2080,8 +2135,11 @@
       <c r="BJ3" s="5" t="s">
         <v>195</v>
       </c>
+      <c r="BK3" s="54" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
       <c r="D4" s="50"/>
@@ -2131,8 +2189,9 @@
       <c r="BH4" s="28"/>
       <c r="BI4" s="28"/>
       <c r="BJ4" s="28"/>
+      <c r="BK4" s="55"/>
     </row>
-    <row r="5" spans="1:62" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2194,8 +2253,9 @@
       <c r="BH5" s="28"/>
       <c r="BI5" s="28"/>
       <c r="BJ5" s="28"/>
+      <c r="BK5" s="55"/>
     </row>
-    <row r="6" spans="1:62" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>116</v>
       </c>
@@ -2328,8 +2388,11 @@
       <c r="BJ6" s="35" t="s">
         <v>200</v>
       </c>
+      <c r="BK6" s="56" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>117</v>
       </c>
@@ -2478,8 +2541,11 @@
       <c r="BJ7" s="20" t="s">
         <v>202</v>
       </c>
+      <c r="BK7" s="57" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -2608,8 +2674,11 @@
       <c r="BJ8" s="20" t="s">
         <v>204</v>
       </c>
+      <c r="BK8" s="57" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -2751,6 +2820,9 @@
       <c r="BI9" s="20"/>
       <c r="BJ9" s="20" t="s">
         <v>206</v>
+      </c>
+      <c r="BK9" s="57" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestAllDataType.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 7.0\XlsxToLua\bin\Debug\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\表格导出工具 7.1\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="108" windowWidth="28032" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -668,10 +668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试date（以距离0点的秒数输入，导出至lua文件采用默认的时间格式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试time（使用默认的时间输入格式，导出至lua文件采用距离0点的秒数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -865,6 +861,10 @@
   </si>
   <si>
     <t>{"position":{"x":1,"y":-0.5},"field":["a","b","value3"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试time（以距离0点的秒数输入，导出至lua文件采用默认的时间格式）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1307,7 +1307,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1596,63 +1596,63 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="9" style="8"/>
-    <col min="3" max="3" width="17.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="53" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="10" customWidth="1"/>
-    <col min="7" max="8" width="18.5" style="10" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="11" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="16.625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="10" customWidth="1"/>
+    <col min="7" max="8" width="18.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="9" customWidth="1"/>
     <col min="18" max="18" width="17" style="12" customWidth="1"/>
-    <col min="19" max="19" width="16.625" style="12" customWidth="1"/>
-    <col min="20" max="20" width="15.875" style="12" customWidth="1"/>
-    <col min="21" max="21" width="27.625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="15.88671875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="27.6640625" style="11" customWidth="1"/>
     <col min="22" max="22" width="14" style="11" customWidth="1"/>
-    <col min="23" max="23" width="12.625" style="11" customWidth="1"/>
-    <col min="24" max="24" width="17.75" style="15" customWidth="1"/>
-    <col min="25" max="25" width="25.75" style="7" customWidth="1"/>
-    <col min="26" max="26" width="18.375" style="7" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" style="11" customWidth="1"/>
+    <col min="24" max="24" width="17.77734375" style="15" customWidth="1"/>
+    <col min="25" max="25" width="25.77734375" style="7" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" style="7" customWidth="1"/>
     <col min="27" max="29" width="9" style="7"/>
-    <col min="30" max="30" width="15.75" style="7" customWidth="1"/>
+    <col min="30" max="30" width="15.77734375" style="7" customWidth="1"/>
     <col min="31" max="33" width="9" style="7"/>
-    <col min="34" max="34" width="19.125" style="10" customWidth="1"/>
-    <col min="35" max="35" width="22.625" style="9" customWidth="1"/>
+    <col min="34" max="34" width="19.109375" style="10" customWidth="1"/>
+    <col min="35" max="35" width="22.6640625" style="9" customWidth="1"/>
     <col min="36" max="43" width="9" style="9"/>
-    <col min="44" max="44" width="22.25" style="43" customWidth="1"/>
-    <col min="45" max="45" width="13.375" style="43" customWidth="1"/>
+    <col min="44" max="44" width="22.21875" style="43" customWidth="1"/>
+    <col min="45" max="45" width="13.33203125" style="43" customWidth="1"/>
     <col min="46" max="46" width="17" style="43" customWidth="1"/>
-    <col min="47" max="47" width="11.875" style="43" customWidth="1"/>
-    <col min="48" max="48" width="12.875" style="43" customWidth="1"/>
-    <col min="49" max="49" width="12.5" style="43" customWidth="1"/>
-    <col min="50" max="50" width="29.875" style="12" customWidth="1"/>
-    <col min="51" max="51" width="28.625" style="9" customWidth="1"/>
-    <col min="52" max="52" width="36.25" style="7" customWidth="1"/>
-    <col min="53" max="53" width="38.5" style="15" customWidth="1"/>
-    <col min="54" max="54" width="31.5" style="11" customWidth="1"/>
-    <col min="55" max="55" width="33.125" style="9" customWidth="1"/>
-    <col min="56" max="56" width="34.125" style="7" customWidth="1"/>
-    <col min="57" max="57" width="33.125" style="48" customWidth="1"/>
-    <col min="58" max="58" width="31.25" style="11" customWidth="1"/>
-    <col min="59" max="59" width="17.5" style="11" customWidth="1"/>
-    <col min="60" max="60" width="26.625" style="11" customWidth="1"/>
+    <col min="47" max="47" width="11.88671875" style="43" customWidth="1"/>
+    <col min="48" max="48" width="12.88671875" style="43" customWidth="1"/>
+    <col min="49" max="49" width="12.44140625" style="43" customWidth="1"/>
+    <col min="50" max="50" width="29.88671875" style="12" customWidth="1"/>
+    <col min="51" max="51" width="28.6640625" style="9" customWidth="1"/>
+    <col min="52" max="52" width="36.21875" style="7" customWidth="1"/>
+    <col min="53" max="53" width="38.44140625" style="15" customWidth="1"/>
+    <col min="54" max="54" width="31.44140625" style="11" customWidth="1"/>
+    <col min="55" max="55" width="33.109375" style="9" customWidth="1"/>
+    <col min="56" max="56" width="34.109375" style="7" customWidth="1"/>
+    <col min="57" max="57" width="33.109375" style="48" customWidth="1"/>
+    <col min="58" max="58" width="31.21875" style="11" customWidth="1"/>
+    <col min="59" max="59" width="17.44140625" style="11" customWidth="1"/>
+    <col min="60" max="60" width="26.6640625" style="11" customWidth="1"/>
     <col min="61" max="61" width="9" style="11"/>
-    <col min="62" max="62" width="19.75" style="11" customWidth="1"/>
+    <col min="62" max="62" width="19.77734375" style="11" customWidth="1"/>
     <col min="63" max="63" width="66" style="58" customWidth="1"/>
     <col min="64" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>8</v>
@@ -1681,7 +1681,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>17</v>
@@ -1717,10 +1717,10 @@
         <v>121</v>
       </c>
       <c r="V1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>31</v>
@@ -1819,31 +1819,31 @@
         <v>147</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BE1" s="44" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="BF1" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BG1" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BH1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="BI1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="BI1" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="BJ1" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BK1" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -1972,21 +1972,21 @@
         <v>160</v>
       </c>
       <c r="BF2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BG2" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BH2" s="5"/>
       <c r="BI2" s="5"/>
       <c r="BJ2" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BK2" s="54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>115</v>
@@ -2015,7 +2015,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -2125,21 +2125,21 @@
         <v>162</v>
       </c>
       <c r="BF3" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BG3" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BH3" s="5"/>
       <c r="BI3" s="5"/>
       <c r="BJ3" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BK3" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
       <c r="D4" s="50"/>
@@ -2191,7 +2191,7 @@
       <c r="BJ4" s="28"/>
       <c r="BK4" s="55"/>
     </row>
-    <row r="5" spans="1:63" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2255,7 +2255,7 @@
       <c r="BJ5" s="28"/>
       <c r="BK5" s="55"/>
     </row>
-    <row r="6" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>116</v>
       </c>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="34">
         <v>-1</v>
@@ -2365,10 +2365,10 @@
         <v>134</v>
       </c>
       <c r="BA6" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BB6" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BC6" s="33" t="s">
         <v>153</v>
@@ -2377,22 +2377,22 @@
         <v>150</v>
       </c>
       <c r="BE6" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BF6" s="35"/>
       <c r="BG6" s="35"/>
       <c r="BH6" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BI6" s="35"/>
       <c r="BJ6" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BK6" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>117</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>107</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -2518,10 +2518,10 @@
         <v>135</v>
       </c>
       <c r="BA7" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BB7" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BC7" s="18" t="s">
         <v>154</v>
@@ -2530,22 +2530,22 @@
         <v>157</v>
       </c>
       <c r="BE7" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BF7" s="20"/>
       <c r="BG7" s="20"/>
       <c r="BH7" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BI7" s="20"/>
       <c r="BJ7" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BK7" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>108</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19">
@@ -2651,10 +2651,10 @@
         <v>136</v>
       </c>
       <c r="BA8" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BB8" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BC8" s="18" t="s">
         <v>155</v>
@@ -2663,22 +2663,22 @@
         <v>158</v>
       </c>
       <c r="BE8" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BF8" s="20"/>
       <c r="BG8" s="20"/>
       <c r="BH8" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BI8" s="20"/>
       <c r="BJ8" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BK8" s="57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>109</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19">
@@ -2798,10 +2798,10 @@
         <v>137</v>
       </c>
       <c r="BA9" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BB9" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BC9" s="18" t="s">
         <v>156</v>
@@ -2810,19 +2810,19 @@
         <v>151</v>
       </c>
       <c r="BE9" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BF9" s="20"/>
       <c r="BG9" s="20"/>
       <c r="BH9" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BI9" s="20"/>
       <c r="BJ9" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BK9" s="57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +2839,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2853,7 +2853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
